--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -1743,7 +1743,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112037208</v>
+        <v>112037684</v>
       </c>
       <c r="B10" t="n">
         <v>77515</v>
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516097.2615754164</v>
+        <v>515886.4644205247</v>
       </c>
       <c r="R10" t="n">
-        <v>7184258.515744804</v>
+        <v>7184225.831779522</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1846,6 +1846,16 @@
           <t>Blåbärsbarrskog</t>
         </is>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr">
         <is>
           <t>Stående död trädstam/högstubbe</t>
@@ -1853,7 +1863,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1871,7 +1881,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112037684</v>
+        <v>112037208</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1912,10 +1922,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>515886.4644205247</v>
+        <v>516097.2615754164</v>
       </c>
       <c r="R11" t="n">
-        <v>7184225.831779522</v>
+        <v>7184258.515744804</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1947,7 +1957,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1957,7 +1967,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1974,16 +1984,6 @@
           <t>Blåbärsbarrskog</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM11" t="inlineStr">
         <is>
           <t>Stående död trädstam/högstubbe</t>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112038082</v>
+        <v>112035020</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>89401</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>1108</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>515925.2595200292</v>
+        <v>515923.0367052297</v>
       </c>
       <c r="R2" t="n">
-        <v>7184319.449006356</v>
+        <v>7184658.938780431</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,27 +780,17 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stump</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -818,10 +808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112035981</v>
+        <v>112038082</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -834,21 +824,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -859,13 +849,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516148.9607429177</v>
+        <v>515925.2595200292</v>
       </c>
       <c r="R3" t="n">
-        <v>7184413.197005644</v>
+        <v>7184319.449006356</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,7 +884,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -904,7 +894,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -918,7 +908,27 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -936,10 +946,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112037635</v>
+        <v>112035981</v>
       </c>
       <c r="B4" t="n">
-        <v>89401</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,25 +958,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -977,13 +987,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>515886.4644205247</v>
+        <v>516148.9607429177</v>
       </c>
       <c r="R4" t="n">
-        <v>7184225.831779522</v>
+        <v>7184413.197005644</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1012,7 +1022,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1022,7 +1032,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,27 +1046,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1074,10 +1064,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112038436</v>
+        <v>112037208</v>
       </c>
       <c r="B5" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1090,21 +1080,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1115,10 +1105,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515951.3091604927</v>
+        <v>516097.2615754164</v>
       </c>
       <c r="R5" t="n">
-        <v>7184319.58691278</v>
+        <v>7184258.515744804</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1140,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1160,7 +1150,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1174,17 +1164,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1194,7 +1174,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1212,10 +1192,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038134</v>
+        <v>112038436</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1228,21 +1208,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1253,10 +1233,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515925.2595200292</v>
+        <v>515951.3091604927</v>
       </c>
       <c r="R6" t="n">
-        <v>7184319.449006356</v>
+        <v>7184319.58691278</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1288,7 +1268,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1298,7 +1278,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1327,12 +1307,12 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1350,7 +1330,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112035549</v>
+        <v>112037684</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1391,10 +1371,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515977.3292799139</v>
+        <v>515886.4644205247</v>
       </c>
       <c r="R7" t="n">
-        <v>7184566.677681392</v>
+        <v>7184225.831779522</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1426,7 +1406,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1436,7 +1416,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1450,17 +1430,27 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1743,10 +1733,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112037684</v>
+        <v>112037386</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1759,21 +1749,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1784,10 +1774,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>515886.4644205247</v>
+        <v>516031.6636387278</v>
       </c>
       <c r="R10" t="n">
-        <v>7184225.831779522</v>
+        <v>7184226.601435129</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1819,7 +1809,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1829,7 +1819,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1858,12 +1848,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1881,7 +1871,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112037208</v>
+        <v>112035549</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1922,10 +1912,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>516097.2615754164</v>
+        <v>515977.3292799139</v>
       </c>
       <c r="R11" t="n">
-        <v>7184258.515744804</v>
+        <v>7184566.677681392</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1957,7 +1947,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1967,7 +1957,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1981,17 +1971,17 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags</t>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2009,7 +1999,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112035020</v>
+        <v>112037635</v>
       </c>
       <c r="B12" t="n">
         <v>89401</v>
@@ -2050,13 +2040,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>515923.0367052297</v>
+        <v>515886.4644205247</v>
       </c>
       <c r="R12" t="n">
-        <v>7184658.938780431</v>
+        <v>7184225.831779522</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2085,7 +2075,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2095,7 +2085,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2109,17 +2099,27 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stump</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112037386</v>
+        <v>112038134</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2153,21 +2153,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516031.6636387278</v>
+        <v>515925.2595200292</v>
       </c>
       <c r="R13" t="n">
-        <v>7184226.601435129</v>
+        <v>7184319.449006356</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112035020</v>
+        <v>112035549</v>
       </c>
       <c r="B2" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>515923.0367052297</v>
+        <v>515977.3292799139</v>
       </c>
       <c r="R2" t="n">
-        <v>7184658.938780431</v>
+        <v>7184566.677681392</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,17 +780,17 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Stump</t>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -808,10 +808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112038082</v>
+        <v>112038134</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,25 +820,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -923,12 +923,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112037208</v>
+        <v>112037635</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1080,21 +1080,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516097.2615754164</v>
+        <v>515886.4644205247</v>
       </c>
       <c r="R5" t="n">
-        <v>7184258.515744804</v>
+        <v>7184225.831779522</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,17 +1164,27 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1192,10 +1202,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038436</v>
+        <v>112038082</v>
       </c>
       <c r="B6" t="n">
-        <v>89401</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1204,25 +1214,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1233,10 +1243,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515951.3091604927</v>
+        <v>515925.2595200292</v>
       </c>
       <c r="R6" t="n">
-        <v>7184319.58691278</v>
+        <v>7184319.449006356</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1268,7 +1278,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1278,7 +1288,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1330,10 +1340,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112037684</v>
+        <v>112035020</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1346,21 +1356,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1371,13 +1381,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515886.4644205247</v>
+        <v>515923.0367052297</v>
       </c>
       <c r="R7" t="n">
-        <v>7184225.831779522</v>
+        <v>7184658.938780431</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1406,7 +1416,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1416,7 +1426,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1433,24 +1443,14 @@
           <t>Blåbärsbarrskog</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stump</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038473</v>
+        <v>112037386</v>
       </c>
       <c r="B8" t="n">
-        <v>89686</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1484,33 +1484,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1518,10 +1509,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>516057.2181607572</v>
+        <v>516031.6636387278</v>
       </c>
       <c r="R8" t="n">
-        <v>7184319.723381012</v>
+        <v>7184226.601435129</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1553,7 +1544,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1563,7 +1554,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1577,7 +1568,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1615,7 +1606,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038529</v>
+        <v>112037208</v>
       </c>
       <c r="B9" t="n">
         <v>77515</v>
@@ -1656,10 +1647,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515871.5299412137</v>
+        <v>516097.2615754164</v>
       </c>
       <c r="R9" t="n">
-        <v>7184628.386151251</v>
+        <v>7184258.515744804</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1691,7 +1682,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1701,7 +1692,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1715,7 +1706,17 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1733,10 +1734,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112037386</v>
+        <v>112038473</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1749,24 +1750,33 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1774,10 +1784,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516031.6636387278</v>
+        <v>516057.2181607572</v>
       </c>
       <c r="R10" t="n">
-        <v>7184226.601435129</v>
+        <v>7184319.723381012</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1809,7 +1819,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1819,7 +1829,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1833,7 +1843,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1871,7 +1881,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112035549</v>
+        <v>112038529</v>
       </c>
       <c r="B11" t="n">
         <v>77515</v>
@@ -1912,10 +1922,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>515977.3292799139</v>
+        <v>515871.5299412137</v>
       </c>
       <c r="R11" t="n">
-        <v>7184566.677681392</v>
+        <v>7184628.386151251</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1947,7 +1957,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1957,7 +1967,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1971,17 +1981,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Branch on living tree</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112037635</v>
+        <v>112037684</v>
       </c>
       <c r="B12" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2015,21 +2015,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038134</v>
+        <v>112038436</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2153,21 +2153,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>515925.2595200292</v>
+        <v>515951.3091604927</v>
       </c>
       <c r="R13" t="n">
-        <v>7184319.449006356</v>
+        <v>7184319.58691278</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112035549</v>
+        <v>112035981</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>90687</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>515977.3292799139</v>
+        <v>516148.9607429177</v>
       </c>
       <c r="R2" t="n">
-        <v>7184566.677681392</v>
+        <v>7184413.197005644</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,17 +780,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Branch on living tree</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -808,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112038134</v>
+        <v>112037635</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -824,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -849,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>515925.2595200292</v>
+        <v>515886.4644205247</v>
       </c>
       <c r="R3" t="n">
-        <v>7184319.449006356</v>
+        <v>7184225.831779522</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -884,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -894,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -946,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112035981</v>
+        <v>112037386</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -958,25 +948,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -987,13 +977,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516148.9607429177</v>
+        <v>516031.6636387278</v>
       </c>
       <c r="R4" t="n">
-        <v>7184413.197005644</v>
+        <v>7184226.601435129</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1022,7 +1012,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1032,7 +1022,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1047,6 +1037,26 @@
       <c r="AH4" t="inlineStr">
         <is>
           <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1064,10 +1074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112037635</v>
+        <v>112035549</v>
       </c>
       <c r="B5" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1080,21 +1090,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1105,10 +1115,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515886.4644205247</v>
+        <v>515977.3292799139</v>
       </c>
       <c r="R5" t="n">
-        <v>7184225.831779522</v>
+        <v>7184566.677681392</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,7 +1150,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1150,7 +1160,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1167,24 +1177,14 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038082</v>
+        <v>112038436</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>89401</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1214,25 +1214,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515925.2595200292</v>
+        <v>515951.3091604927</v>
       </c>
       <c r="R6" t="n">
-        <v>7184319.449006356</v>
+        <v>7184319.58691278</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1340,10 +1340,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112035020</v>
+        <v>112038134</v>
       </c>
       <c r="B7" t="n">
-        <v>89401</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1356,21 +1356,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1381,13 +1381,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515923.0367052297</v>
+        <v>515925.2595200292</v>
       </c>
       <c r="R7" t="n">
-        <v>7184658.938780431</v>
+        <v>7184319.449006356</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1440,17 +1440,27 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stump</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1468,10 +1478,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112037386</v>
+        <v>112038473</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1484,24 +1494,33 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1509,10 +1528,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>516031.6636387278</v>
+        <v>516057.2181607572</v>
       </c>
       <c r="R8" t="n">
-        <v>7184226.601435129</v>
+        <v>7184319.723381012</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1544,7 +1563,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1554,7 +1573,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1568,7 +1587,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1606,7 +1625,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112037208</v>
+        <v>112038529</v>
       </c>
       <c r="B9" t="n">
         <v>77515</v>
@@ -1647,10 +1666,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>516097.2615754164</v>
+        <v>515871.5299412137</v>
       </c>
       <c r="R9" t="n">
-        <v>7184258.515744804</v>
+        <v>7184628.386151251</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1682,7 +1701,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1692,7 +1711,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1706,17 +1725,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1734,10 +1743,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038473</v>
+        <v>112037208</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1750,33 +1759,24 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516057.2181607572</v>
+        <v>516097.2615754164</v>
       </c>
       <c r="R10" t="n">
-        <v>7184319.723381012</v>
+        <v>7184258.515744804</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1843,27 +1843,17 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1881,10 +1871,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112038529</v>
+        <v>112035020</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1897,21 +1887,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1922,13 +1912,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>515871.5299412137</v>
+        <v>515923.0367052297</v>
       </c>
       <c r="R11" t="n">
-        <v>7184628.386151251</v>
+        <v>7184658.938780431</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1957,7 +1947,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1967,7 +1957,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1981,7 +1971,17 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Stubbe</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Stump</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112037684</v>
+        <v>112038082</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2011,25 +2011,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>515886.4644205247</v>
+        <v>515925.2595200292</v>
       </c>
       <c r="R12" t="n">
-        <v>7184225.831779522</v>
+        <v>7184319.449006356</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2137,10 +2137,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038436</v>
+        <v>112037684</v>
       </c>
       <c r="B13" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2153,21 +2153,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>515951.3091604927</v>
+        <v>515886.4644205247</v>
       </c>
       <c r="R13" t="n">
-        <v>7184319.58691278</v>
+        <v>7184225.831779522</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -1074,10 +1074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112035549</v>
+        <v>112038436</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1090,21 +1090,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515977.3292799139</v>
+        <v>515951.3091604927</v>
       </c>
       <c r="R5" t="n">
-        <v>7184566.677681392</v>
+        <v>7184319.58691278</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1177,14 +1177,24 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Branch on living tree</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1202,10 +1212,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038436</v>
+        <v>112035549</v>
       </c>
       <c r="B6" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1218,21 +1228,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1243,10 +1253,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515951.3091604927</v>
+        <v>515977.3292799139</v>
       </c>
       <c r="R6" t="n">
-        <v>7184319.58691278</v>
+        <v>7184566.677681392</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1278,7 +1288,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1288,7 +1298,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1305,24 +1315,14 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038134</v>
+        <v>112038473</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1356,24 +1356,33 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1381,10 +1390,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515925.2595200292</v>
+        <v>516057.2181607572</v>
       </c>
       <c r="R7" t="n">
-        <v>7184319.449006356</v>
+        <v>7184319.723381012</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1416,7 +1425,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1426,7 +1435,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1478,10 +1487,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038473</v>
+        <v>112038529</v>
       </c>
       <c r="B8" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1494,33 +1503,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1528,10 +1528,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>516057.2181607572</v>
+        <v>515871.5299412137</v>
       </c>
       <c r="R8" t="n">
-        <v>7184319.723381012</v>
+        <v>7184628.386151251</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1587,27 +1587,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1625,10 +1605,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038529</v>
+        <v>112038134</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1641,21 +1621,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1666,10 +1646,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515871.5299412137</v>
+        <v>515925.2595200292</v>
       </c>
       <c r="R9" t="n">
-        <v>7184628.386151251</v>
+        <v>7184319.449006356</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1701,7 +1681,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1711,7 +1691,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1725,7 +1705,27 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112035981</v>
+        <v>112038473</v>
       </c>
       <c r="B2" t="n">
-        <v>90687</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,28 +692,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -721,13 +730,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516148.9607429177</v>
+        <v>516057</v>
       </c>
       <c r="R2" t="n">
-        <v>7184413.197005644</v>
+        <v>7184320</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,7 +789,27 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -798,10 +827,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112037635</v>
+        <v>112037386</v>
       </c>
       <c r="B3" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +843,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +868,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>515886.4644205247</v>
+        <v>516032</v>
       </c>
       <c r="R3" t="n">
-        <v>7184225.831779522</v>
+        <v>7184227</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,7 +903,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +913,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -898,7 +927,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -936,10 +965,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112037386</v>
+        <v>112038134</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,21 +981,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -977,10 +1006,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516031.6636387278</v>
+        <v>515925</v>
       </c>
       <c r="R4" t="n">
-        <v>7184226.601435129</v>
+        <v>7184319</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,7 +1041,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1022,7 +1051,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,7 +1065,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1074,10 +1103,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112038436</v>
+        <v>112037208</v>
       </c>
       <c r="B5" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1090,21 +1119,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1115,10 +1144,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515951.3091604927</v>
+        <v>516097</v>
       </c>
       <c r="R5" t="n">
-        <v>7184319.58691278</v>
+        <v>7184259</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,7 +1179,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1160,7 +1189,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1174,17 +1203,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1194,7 +1213,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1212,10 +1231,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112035549</v>
+        <v>112038436</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1228,21 +1247,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1253,10 +1272,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515977.3292799139</v>
+        <v>515951</v>
       </c>
       <c r="R6" t="n">
-        <v>7184566.677681392</v>
+        <v>7184320</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1288,7 +1307,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1298,7 +1317,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1315,14 +1334,24 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1340,10 +1369,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038473</v>
+        <v>112035549</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1356,33 +1385,24 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1390,10 +1410,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>516057.2181607572</v>
+        <v>515977</v>
       </c>
       <c r="R7" t="n">
-        <v>7184319.723381012</v>
+        <v>7184567</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1425,7 +1445,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1435,7 +1455,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1452,24 +1472,14 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1528,10 +1538,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515871.5299412137</v>
+        <v>515872</v>
       </c>
       <c r="R8" t="n">
-        <v>7184628.386151251</v>
+        <v>7184628</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1605,10 +1615,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038134</v>
+        <v>112035020</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1621,21 +1631,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1646,13 +1656,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515925.2595200292</v>
+        <v>515923</v>
       </c>
       <c r="R9" t="n">
-        <v>7184319.449006356</v>
+        <v>7184659</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1681,7 +1691,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1691,7 +1701,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1705,27 +1715,17 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Stump</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112037208</v>
+        <v>112037635</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1759,21 +1759,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516097.2615754164</v>
+        <v>515886</v>
       </c>
       <c r="R10" t="n">
-        <v>7184258.515744804</v>
+        <v>7184226</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1843,17 +1843,27 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1871,10 +1881,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112035020</v>
+        <v>112037684</v>
       </c>
       <c r="B11" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1887,21 +1897,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1912,13 +1922,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>515923.0367052297</v>
+        <v>515886</v>
       </c>
       <c r="R11" t="n">
-        <v>7184658.938780431</v>
+        <v>7184226</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1947,7 +1957,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1957,7 +1967,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1974,14 +1984,24 @@
           <t>Blåbärsbarrskog</t>
         </is>
       </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Stump</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1999,10 +2019,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038082</v>
+        <v>112035981</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>90687</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2015,21 +2035,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2040,13 +2060,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>515925.2595200292</v>
+        <v>516149</v>
       </c>
       <c r="R12" t="n">
-        <v>7184319.449006356</v>
+        <v>7184413</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2075,7 +2095,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2085,7 +2105,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2099,27 +2119,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112037684</v>
+        <v>112038082</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2149,25 +2149,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>515886.4644205247</v>
+        <v>515925</v>
       </c>
       <c r="R13" t="n">
-        <v>7184225.831779522</v>
+        <v>7184319</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112038473</v>
       </c>
       <c r="B2" t="n">
-        <v>89686</v>
+        <v>89820</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112037386</v>
+        <v>112038436</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>89535</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -843,21 +843,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516032</v>
+        <v>515951</v>
       </c>
       <c r="R3" t="n">
-        <v>7184227</v>
+        <v>7184320</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -927,7 +927,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -942,12 +942,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -968,7 +968,7 @@
         <v>112038134</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>112037208</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112038436</v>
+        <v>112035549</v>
       </c>
       <c r="B6" t="n">
-        <v>89401</v>
+        <v>77636</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1247,21 +1247,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1272,10 +1272,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515951</v>
+        <v>515977</v>
       </c>
       <c r="R6" t="n">
-        <v>7184320</v>
+        <v>7184567</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1334,24 +1334,14 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1369,10 +1359,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112035549</v>
+        <v>112037386</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>89557</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1385,21 +1375,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1410,10 +1400,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515977</v>
+        <v>516032</v>
       </c>
       <c r="R7" t="n">
-        <v>7184567</v>
+        <v>7184227</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1445,7 +1435,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1455,7 +1445,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1469,17 +1459,27 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038529</v>
+        <v>112037635</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>89535</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1513,21 +1513,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515872</v>
+        <v>515886</v>
       </c>
       <c r="R8" t="n">
-        <v>7184628</v>
+        <v>7184226</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1597,7 +1597,27 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1618,7 +1638,7 @@
         <v>112035020</v>
       </c>
       <c r="B9" t="n">
-        <v>89401</v>
+        <v>89535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1743,10 +1763,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112037635</v>
+        <v>112037684</v>
       </c>
       <c r="B10" t="n">
-        <v>89401</v>
+        <v>77636</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1759,21 +1779,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1819,7 +1839,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1829,7 +1849,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1843,7 +1863,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1858,12 +1878,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1881,10 +1901,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112037684</v>
+        <v>112035981</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>90821</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1893,25 +1913,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1922,13 +1942,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>515886</v>
+        <v>516149</v>
       </c>
       <c r="R11" t="n">
-        <v>7184226</v>
+        <v>7184413</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1957,7 +1977,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1967,7 +1987,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1982,26 +2002,6 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112035981</v>
+        <v>112038082</v>
       </c>
       <c r="B12" t="n">
-        <v>90687</v>
+        <v>90221</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2035,21 +2035,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2060,13 +2060,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516149</v>
+        <v>515925</v>
       </c>
       <c r="R12" t="n">
-        <v>7184413</v>
+        <v>7184319</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2119,7 +2119,27 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2137,10 +2157,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038082</v>
+        <v>112038529</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>77636</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2149,25 +2169,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2178,10 +2198,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>515925</v>
+        <v>515872</v>
       </c>
       <c r="R13" t="n">
-        <v>7184319</v>
+        <v>7184628</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2213,7 +2233,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2223,7 +2243,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2237,27 +2257,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112038473</v>
+        <v>112038436</v>
       </c>
       <c r="B2" t="n">
-        <v>89820</v>
+        <v>89535</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,33 +696,24 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -730,7 +721,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516057</v>
+        <v>515951</v>
       </c>
       <c r="R2" t="n">
         <v>7184320</v>
@@ -765,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -804,12 +795,12 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -827,10 +818,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112038436</v>
+        <v>112038473</v>
       </c>
       <c r="B3" t="n">
-        <v>89535</v>
+        <v>89820</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -843,24 +834,33 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>515951</v>
+        <v>516057</v>
       </c>
       <c r="R3" t="n">
         <v>7184320</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -942,12 +942,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112037386</v>
+        <v>112035020</v>
       </c>
       <c r="B7" t="n">
-        <v>89557</v>
+        <v>89535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1375,21 +1375,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>516032</v>
+        <v>515923</v>
       </c>
       <c r="R7" t="n">
-        <v>7184227</v>
+        <v>7184659</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1462,24 +1462,14 @@
           <t>Blåbärsbarrskog</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Stump</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1497,10 +1487,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112037635</v>
+        <v>112037386</v>
       </c>
       <c r="B8" t="n">
-        <v>89535</v>
+        <v>89557</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1513,21 +1503,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1538,10 +1528,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515886</v>
+        <v>516032</v>
       </c>
       <c r="R8" t="n">
-        <v>7184226</v>
+        <v>7184227</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1573,7 +1563,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1583,7 +1573,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1597,7 +1587,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1635,7 +1625,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112035020</v>
+        <v>112037635</v>
       </c>
       <c r="B9" t="n">
         <v>89535</v>
@@ -1676,13 +1666,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515923</v>
+        <v>515886</v>
       </c>
       <c r="R9" t="n">
-        <v>7184659</v>
+        <v>7184226</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1711,7 +1701,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1721,7 +1711,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1735,17 +1725,27 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Stump</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112038436</v>
+        <v>112035981</v>
       </c>
       <c r="B2" t="n">
-        <v>89535</v>
+        <v>90835</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1108</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>515951</v>
+        <v>516149</v>
       </c>
       <c r="R2" t="n">
-        <v>7184320</v>
+        <v>7184413</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,27 +780,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -818,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112038473</v>
+        <v>112035020</v>
       </c>
       <c r="B3" t="n">
-        <v>89820</v>
+        <v>89549</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -834,33 +814,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -868,13 +839,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516057</v>
+        <v>515923</v>
       </c>
       <c r="R3" t="n">
-        <v>7184320</v>
+        <v>7184659</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -903,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -913,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -927,27 +898,17 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Stump</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -965,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112038134</v>
+        <v>112037684</v>
       </c>
       <c r="B4" t="n">
-        <v>89539</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -981,21 +942,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1006,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>515925</v>
+        <v>515886</v>
       </c>
       <c r="R4" t="n">
-        <v>7184319</v>
+        <v>7184226</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1041,7 +1002,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1051,7 +1012,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1065,7 +1026,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1080,12 +1041,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1103,10 +1064,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112037208</v>
+        <v>112035549</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1144,10 +1105,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516097</v>
+        <v>515977</v>
       </c>
       <c r="R5" t="n">
-        <v>7184259</v>
+        <v>7184567</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1179,7 +1140,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1189,7 +1150,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1203,17 +1164,17 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags</t>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1231,10 +1192,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112035549</v>
+        <v>112037635</v>
       </c>
       <c r="B6" t="n">
-        <v>77636</v>
+        <v>89549</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1247,21 +1208,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1272,10 +1233,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515977</v>
+        <v>515886</v>
       </c>
       <c r="R6" t="n">
-        <v>7184567</v>
+        <v>7184226</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1307,7 +1268,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1317,7 +1278,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1334,14 +1295,24 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1359,10 +1330,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112035020</v>
+        <v>112038134</v>
       </c>
       <c r="B7" t="n">
-        <v>89535</v>
+        <v>89553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1375,21 +1346,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1400,13 +1371,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515923</v>
+        <v>515925</v>
       </c>
       <c r="R7" t="n">
-        <v>7184659</v>
+        <v>7184319</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1435,7 +1406,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1445,7 +1416,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1459,17 +1430,27 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stump</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1487,10 +1468,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112037386</v>
+        <v>112038529</v>
       </c>
       <c r="B8" t="n">
-        <v>89557</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1503,21 +1484,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1528,10 +1509,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>516032</v>
+        <v>515872</v>
       </c>
       <c r="R8" t="n">
-        <v>7184227</v>
+        <v>7184628</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1563,7 +1544,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1573,7 +1554,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1587,27 +1568,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1625,10 +1586,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112037635</v>
+        <v>112038436</v>
       </c>
       <c r="B9" t="n">
-        <v>89535</v>
+        <v>89549</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1666,10 +1627,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515886</v>
+        <v>515951</v>
       </c>
       <c r="R9" t="n">
-        <v>7184226</v>
+        <v>7184320</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1701,7 +1662,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1711,7 +1672,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1740,12 +1701,12 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1763,10 +1724,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112037684</v>
+        <v>112037386</v>
       </c>
       <c r="B10" t="n">
-        <v>77636</v>
+        <v>89571</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1779,21 +1740,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1804,10 +1765,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>515886</v>
+        <v>516032</v>
       </c>
       <c r="R10" t="n">
-        <v>7184226</v>
+        <v>7184227</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1839,7 +1800,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1849,7 +1810,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1878,12 +1839,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1901,10 +1862,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112035981</v>
+        <v>112037208</v>
       </c>
       <c r="B11" t="n">
-        <v>90821</v>
+        <v>77650</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1913,25 +1874,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1942,13 +1903,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>516149</v>
+        <v>516097</v>
       </c>
       <c r="R11" t="n">
-        <v>7184413</v>
+        <v>7184259</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1977,7 +1938,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1987,7 +1948,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2002,6 +1963,16 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2019,10 +1990,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038082</v>
+        <v>112038473</v>
       </c>
       <c r="B12" t="n">
-        <v>90221</v>
+        <v>89834</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2031,28 +2002,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2060,10 +2040,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>515925</v>
+        <v>516057</v>
       </c>
       <c r="R12" t="n">
-        <v>7184319</v>
+        <v>7184320</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2095,7 +2075,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2105,7 +2085,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2134,12 +2114,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2157,10 +2137,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038529</v>
+        <v>112038082</v>
       </c>
       <c r="B13" t="n">
-        <v>77636</v>
+        <v>90235</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2169,25 +2149,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2198,10 +2178,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>515872</v>
+        <v>515925</v>
       </c>
       <c r="R13" t="n">
-        <v>7184628</v>
+        <v>7184319</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2233,7 +2213,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2243,7 +2223,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2257,7 +2237,27 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112035981</v>
+        <v>112037208</v>
       </c>
       <c r="B2" t="n">
-        <v>90835</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516149</v>
+        <v>516097</v>
       </c>
       <c r="R2" t="n">
-        <v>7184413</v>
+        <v>7184259</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,6 +781,16 @@
       <c r="AH2" t="inlineStr">
         <is>
           <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -798,10 +808,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112035020</v>
+        <v>112038134</v>
       </c>
       <c r="B3" t="n">
-        <v>89549</v>
+        <v>89553</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +824,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,13 +849,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>515923</v>
+        <v>515925</v>
       </c>
       <c r="R3" t="n">
-        <v>7184659</v>
+        <v>7184319</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -874,7 +884,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +894,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -898,17 +908,27 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stump</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -926,10 +946,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112037684</v>
+        <v>112037635</v>
       </c>
       <c r="B4" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -942,21 +962,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1002,7 +1022,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1012,7 +1032,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,7 +1046,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1041,12 +1061,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1064,10 +1084,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112035549</v>
+        <v>112038436</v>
       </c>
       <c r="B5" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1080,21 +1100,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1105,10 +1125,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515977</v>
+        <v>515951</v>
       </c>
       <c r="R5" t="n">
-        <v>7184567</v>
+        <v>7184320</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1140,7 +1160,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1150,7 +1170,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1167,14 +1187,24 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Branch on living tree</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1192,10 +1222,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112037635</v>
+        <v>112035549</v>
       </c>
       <c r="B6" t="n">
-        <v>89549</v>
+        <v>77650</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1208,21 +1238,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1233,10 +1263,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515886</v>
+        <v>515977</v>
       </c>
       <c r="R6" t="n">
-        <v>7184226</v>
+        <v>7184567</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1268,7 +1298,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1278,7 +1308,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1295,24 +1325,14 @@
           <t>Blåbärsgranskog</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1330,10 +1350,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038134</v>
+        <v>112038529</v>
       </c>
       <c r="B7" t="n">
-        <v>89553</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1346,21 +1366,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1371,10 +1391,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515925</v>
+        <v>515872</v>
       </c>
       <c r="R7" t="n">
-        <v>7184319</v>
+        <v>7184628</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1406,7 +1426,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1416,7 +1436,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1430,27 +1450,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038529</v>
+        <v>112038473</v>
       </c>
       <c r="B8" t="n">
-        <v>77650</v>
+        <v>89834</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1484,24 +1484,33 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1509,10 +1518,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>515872</v>
+        <v>516057</v>
       </c>
       <c r="R8" t="n">
-        <v>7184628</v>
+        <v>7184320</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1544,7 +1553,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1554,7 +1563,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1568,7 +1577,27 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1586,10 +1615,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038436</v>
+        <v>112037684</v>
       </c>
       <c r="B9" t="n">
-        <v>89549</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1602,21 +1631,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1627,10 +1656,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515951</v>
+        <v>515886</v>
       </c>
       <c r="R9" t="n">
-        <v>7184320</v>
+        <v>7184226</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1662,7 +1691,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1672,7 +1701,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1686,7 +1715,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -1724,10 +1753,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112037386</v>
+        <v>112038082</v>
       </c>
       <c r="B10" t="n">
-        <v>89571</v>
+        <v>90235</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1736,25 +1765,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1765,10 +1794,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516032</v>
+        <v>515925</v>
       </c>
       <c r="R10" t="n">
-        <v>7184227</v>
+        <v>7184319</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1800,7 +1829,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1810,7 +1839,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1824,7 +1853,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1839,12 +1868,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1862,10 +1891,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112037208</v>
+        <v>112035020</v>
       </c>
       <c r="B11" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1878,21 +1907,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1903,13 +1932,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>516097</v>
+        <v>515923</v>
       </c>
       <c r="R11" t="n">
-        <v>7184259</v>
+        <v>7184659</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1938,7 +1967,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1948,7 +1977,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1967,12 +1996,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags</t>
+          <t>Stump</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1990,10 +2019,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112038473</v>
+        <v>112035981</v>
       </c>
       <c r="B12" t="n">
-        <v>89834</v>
+        <v>90835</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2002,37 +2031,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2040,13 +2060,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516057</v>
+        <v>516149</v>
       </c>
       <c r="R12" t="n">
-        <v>7184320</v>
+        <v>7184413</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2075,7 +2095,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2085,7 +2105,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2099,27 +2119,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112038082</v>
+        <v>112037386</v>
       </c>
       <c r="B13" t="n">
-        <v>90235</v>
+        <v>89571</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2149,25 +2149,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>515925</v>
+        <v>516032</v>
       </c>
       <c r="R13" t="n">
-        <v>7184319</v>
+        <v>7184227</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -1468,10 +1468,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112038473</v>
+        <v>112038082</v>
       </c>
       <c r="B8" t="n">
-        <v>89834</v>
+        <v>90235</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1480,37 +1480,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1518,10 +1509,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>516057</v>
+        <v>515925</v>
       </c>
       <c r="R8" t="n">
-        <v>7184320</v>
+        <v>7184319</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1553,7 +1544,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1563,7 +1554,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1592,12 +1583,12 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1615,10 +1606,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112037684</v>
+        <v>112038473</v>
       </c>
       <c r="B9" t="n">
-        <v>77650</v>
+        <v>89834</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1631,24 +1622,33 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>515886</v>
+        <v>516057</v>
       </c>
       <c r="R9" t="n">
-        <v>7184226</v>
+        <v>7184320</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112038082</v>
+        <v>112037684</v>
       </c>
       <c r="B10" t="n">
-        <v>90235</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1765,25 +1765,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>515925</v>
+        <v>515886</v>
       </c>
       <c r="R10" t="n">
-        <v>7184319</v>
+        <v>7184226</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">

--- a/artfynd/A 33655-2023.xlsx
+++ b/artfynd/A 33655-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112037208</v>
+        <v>112038436</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516097</v>
+        <v>515951</v>
       </c>
       <c r="R2" t="n">
-        <v>7184259</v>
+        <v>7184320</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,7 +780,17 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
@@ -790,7 +800,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -808,10 +818,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112038134</v>
+        <v>112035981</v>
       </c>
       <c r="B3" t="n">
-        <v>89553</v>
+        <v>90835</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,25 +830,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -849,13 +859,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>515925</v>
+        <v>516149</v>
       </c>
       <c r="R3" t="n">
-        <v>7184319</v>
+        <v>7184413</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -884,7 +894,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -894,7 +904,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -908,27 +918,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -946,10 +936,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112037635</v>
+        <v>112038529</v>
       </c>
       <c r="B4" t="n">
-        <v>89549</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -962,21 +952,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -987,10 +977,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>515886</v>
+        <v>515872</v>
       </c>
       <c r="R4" t="n">
-        <v>7184226</v>
+        <v>7184628</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1022,7 +1012,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1032,7 +1022,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:06</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,27 +1036,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Liggande död trädstam, markontakt</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1084,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112038436</v>
+        <v>112038134</v>
       </c>
       <c r="B5" t="n">
-        <v>89549</v>
+        <v>89553</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1100,21 +1070,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1125,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>515951</v>
+        <v>515925</v>
       </c>
       <c r="R5" t="n">
-        <v>7184320</v>
+        <v>7184319</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1160,7 +1130,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1170,7 +1140,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1199,12 +1169,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1222,7 +1192,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112035549</v>
+        <v>112037684</v>
       </c>
       <c r="B6" t="n">
         <v>77650</v>
@@ -1263,10 +1233,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>515977</v>
+        <v>515886</v>
       </c>
       <c r="R6" t="n">
-        <v>7184567</v>
+        <v>7184226</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1298,7 +1268,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1308,7 +1278,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1322,17 +1292,27 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1350,10 +1330,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112038529</v>
+        <v>112038473</v>
       </c>
       <c r="B7" t="n">
-        <v>77650</v>
+        <v>89834</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1366,24 +1346,33 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1391,10 +1380,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>515872</v>
+        <v>516057</v>
       </c>
       <c r="R7" t="n">
-        <v>7184628</v>
+        <v>7184320</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1426,7 +1415,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1436,7 +1425,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1450,7 +1439,27 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Liggande död trädstam, markontakt</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1606,10 +1615,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112038473</v>
+        <v>112037386</v>
       </c>
       <c r="B9" t="n">
-        <v>89834</v>
+        <v>89571</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1622,33 +1631,24 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>516057</v>
+        <v>516032</v>
       </c>
       <c r="R9" t="n">
-        <v>7184320</v>
+        <v>7184227</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>Blåbärsgranskog</t>
+          <t>Blåbärsbarrskog</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -1753,10 +1753,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112037684</v>
+        <v>112037635</v>
       </c>
       <c r="B10" t="n">
-        <v>77650</v>
+        <v>89549</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1769,21 +1769,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112035981</v>
+        <v>112035549</v>
       </c>
       <c r="B12" t="n">
-        <v>90835</v>
+        <v>77650</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2031,25 +2031,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2060,13 +2060,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516149</v>
+        <v>515977</v>
       </c>
       <c r="R12" t="n">
-        <v>7184413</v>
+        <v>7184567</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2119,7 +2119,17 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>Blåbärsbarrskog</t>
+          <t>Blåbärsgranskog</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Branch on living tree</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2137,10 +2147,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112037386</v>
+        <v>112037208</v>
       </c>
       <c r="B13" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2153,21 +2163,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2178,10 +2188,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516032</v>
+        <v>516097</v>
       </c>
       <c r="R13" t="n">
-        <v>7184227</v>
+        <v>7184259</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2213,7 +2223,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2223,7 +2233,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2240,24 +2250,14 @@
           <t>Blåbärsbarrskog</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
